--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/62_Niğde_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/62_Niğde_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC9BE29-DAFF-42DA-8609-7239A08F7CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE15691B-9F82-42A3-8951-114CA77F40CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{20A1EE7C-F896-4312-93CB-B182E3D9091E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{D14B78E2-1452-4D95-B89F-23749DCCF45F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -970,14 +970,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A0D2B277-5383-4F1D-8DAC-7E5D17F85274}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1652149A-5EC1-4144-ADE9-73A2D9833B5B}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{1124BF8C-EC37-4182-99C0-86E7A7F9B5C8}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{0C826766-2DE3-4950-914E-2DD6ADC4E06C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DEE9E572-B079-4BA7-BFD9-B855AF523F36}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{45ADC4AC-2442-40DF-9C19-FA50B1633406}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{3514986E-4DC3-4555-B33C-48E9E421E864}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{465F18FC-E8C2-41D6-9EA7-5D5BDBAD75E9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FFC0A94A-0F76-4F30-B9D2-BBC3D8C08928}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{13C515D7-238B-4294-BA64-EA9D434C4128}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{AE75F58B-AB2A-4EC6-855B-030E2AA5B288}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{AD0CEF10-8D87-4E3D-9DC2-3E19623955A8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F6C3F166-28AA-4CD0-B918-E5D857B4F437}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{6EABA5CA-FB75-4C4C-8FA8-408C67815ECB}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{AFF573E0-3438-47C5-8496-A4A4EDEF0EF2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{EA12FC4F-C07D-4570-8C4C-D5F689675B1B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1347,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05745E85-B8BA-4B6B-A996-CA90591FF614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1302703E-32D5-4DC0-B548-34AE33E4C67A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2578,18 +2578,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15EFDB44-15D9-47D6-91A7-0338E0EE4E67}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B22D9C7-F080-4A59-B1C9-9C6CD8905C33}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B6EB402-2119-414D-9715-97F5211FC5E0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{07C42AD7-A87A-453C-ADB0-D26E3C8CD705}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4D602D19-B1D1-43A3-B8A7-D78A025EDE3E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BED1D5B5-CE7C-4FFB-9A67-5B66ABB483EA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{709A8E76-8F1B-4EAB-8833-8FBBFD9ED76E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC4C4A54-E2B2-4376-8E14-24CC65051781}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A663D8EA-B0A4-4CAB-A36C-4B43950AC29E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FBEBEA7-683D-42C7-A679-69BA0E8562F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F73CE876-7F1D-4E35-B283-DE08797A4743}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FD8A200B-EF9F-41D0-BDF1-46EEB310FEC4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC92992F-170A-4413-B340-B2F60D6F0DEB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD2FE60C-F208-46D8-B7D8-835C0D2F3584}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D2BCADFA-9262-4929-8D31-B89D0B267860}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{738A9DEC-F7B3-43CA-AC4B-E922B29D144A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07EAF17A-96EF-492E-9652-86E3FBE74C1E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{80B87FE3-7077-4831-9EAF-4A56D9976C1A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B45B64C3-7832-4814-9A61-B3486C152018}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12215EDC-F100-43CF-AE54-4604ACBF4B50}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D02FB81F-B18A-42F1-A13D-DC1C1B79F3D4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00AABC6A-7CB8-4799-85C3-FE9476C2AB32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E73A8196-EF6A-4A62-8898-C6105BC27635}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A0654811-FB74-479D-BBDD-3C768C1D78D6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2602,7 +2602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170AD037-272D-4557-BCC5-16CFCD8C5569}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A734A1-0168-4534-A6D2-BC9A84E689AA}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3812,18 +3812,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9568D0B3-0D38-471A-80BE-FF3EE90FA908}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{834BDB3D-FEC3-40A2-BB2E-28A1465B5190}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0908D627-C5BE-47FA-BEBC-6A6FE35A9C2C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C5A06AA0-34D5-4268-AD4F-99754179AEAE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBE7ED71-AEA4-4CAD-A5D8-337CB85359F2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3F1FAA46-A2DC-4858-A917-1C695F071FA9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC449050-D4F8-4E1F-9805-B7A32B570B38}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2B5F03F-D85C-47CE-8DD6-44484C2F5A88}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{39AE159B-FFFB-41C9-8DA5-506AEEE13224}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19485C55-5565-43DC-979A-C3989CA55989}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38EF2974-9C50-4FB4-978F-8953DB0326AD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B793E18-3887-4E20-B2F9-F72B786F694A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C00A81A9-F385-470F-A1A8-C3EF535B3563}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59850CCD-073D-4557-A396-A1067D39553F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CE080B79-C026-45B3-BE3A-18BC9D792B91}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9D144EB1-E9B7-4247-BBBE-A2A6C3159653}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{157281A6-E856-4FE7-8B7D-865CD5985AF5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B3CAF5F4-5845-4D23-9E24-6C30429B0E1D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{840B4446-B5DF-4A11-B2EF-8F151956EAF2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78B2B840-070A-4062-AB2F-033BD3D0D1A5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C88AAE8D-CB8B-4ABE-B959-59395A260BD2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2210AA1E-36D7-443D-BE77-1B6D30DDD744}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45484C16-7F21-4982-92AA-C45FE7DEBA6A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3FE384AC-3977-4FC1-BF5A-FE1B52D637CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3836,7 +3836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D98FF3-8261-43F1-A0AA-20092327B172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EDE763-E0DE-45F9-BA04-E75CC5D0F44F}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5050,18 +5050,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67875686-B5D1-4F27-933D-38DA366A8930}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{199A9C5B-7218-4441-ABE6-1AF5895F852D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E42C66DE-EC2C-48D8-9017-BFF88DDA1807}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1C074F61-5DD4-4F94-86FF-9F6C13D986C1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58931293-99DE-4CA9-8712-B27415365735}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0F396FA8-0798-4962-AE7A-18776B2D57BB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E17CDBD-6947-4181-B346-BD8B3AA6E7F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72B09EF3-0AE3-4462-86E0-51A4AF791ECB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9BD99864-536F-4570-B19F-CEDBAD0A6C8B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{857B3DE5-EE25-4C19-8EA9-9AC0B1304292}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38B16B1D-7EE0-4F1C-AE15-AF09B312DD5B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E6C0DAB8-2557-4CA7-B139-2F1C1547E47B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F5B56FC-E3F2-48CA-822C-D0FC8493F208}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D1C6E43-50F5-4149-B92C-C0F497A22B97}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{04D8BE59-0E7A-42A2-91F6-326E1CC49720}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F095A7B6-9115-486B-9AB3-5BA5482D9B33}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{801B8AC5-EBEA-412C-9273-2A9A9745C1A1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AD40BC50-645E-47CD-A705-5CDB033491BC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27708F0E-FABE-4083-909B-A2ED8AEAA4FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0455B366-8554-401A-8C3D-7F96AEFEDE08}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0185C6E-AB8B-4247-8C81-04A56A738D69}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00256754-DA8B-4CF2-BB04-FD518D0B4E26}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB587CEC-FBED-4CAB-9CE3-6A3783442CF5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A84987E-B0D1-4DAA-B32F-A0E887739481}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5074,7 +5074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFCD9F0-A2DC-4800-83D8-135E5B899F36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B123DC20-43B4-444C-A409-9FF051CDC2B0}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6284,18 +6284,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E4809BF-C186-4FAB-89AD-38A5F31A1361}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5DF6F4C-2058-4D59-B7F3-B646FBA51838}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CE164E72-1855-413A-883A-26CEE123ACF2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0B440589-5316-4032-B9AF-CE3A4444DEAC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCC61B5F-AD8D-46BB-9ED6-E9C4F9FBDF29}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7070C570-2543-4DD6-8F5C-6A2D7C5FB809}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09851C3F-4DE2-48AE-AC84-05C518FD1BEC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{731622BD-4E33-44E2-AED6-17281D5F7B4B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{160E5A45-FEBA-40DC-8536-27265605EA41}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9593B8C4-4FF2-40C4-8FAC-D7DBA51930DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10B07F46-71F7-46A3-A2A4-C23E18286E6B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AEE4611C-4327-47A4-AB20-4E781CA0E942}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EA239B16-E3BF-43F1-8AC3-CE8D21158F05}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{850DB9F5-9100-4D08-8CEB-ECAF602146A4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6674B72A-C093-42EB-B695-F25248F8C9A2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A11FEF07-A6A8-4DB0-BCD0-A95F4DC05E5C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74E5B53B-2E32-4A9C-A0A1-320634523B5C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{914249BC-62D5-4B07-B50F-FB07C92DABDF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{356F3509-A101-4C11-A377-BEBE7D25A09D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63F71840-3F09-48CB-B875-B6928404B5F2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0F84DBA-48C2-45F2-91F2-9FE8FC54E992}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61B00339-9A5D-4B7E-BC4C-AA20A9AF4C66}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9ACBC16F-D2B0-4096-9E96-5F4A80AAF080}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38D2190C-DF89-4E3B-8421-31CCACF45B34}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6308,7 +6308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB215F2-62DF-4310-B8C1-3463C1524A1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6773C3-F700-4F1F-8270-43F568596463}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7533,18 +7533,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99D652C8-16A9-403B-8458-9AC2BB2B996E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D56C3AF-3798-4A86-9F43-358627C77EB4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{898DC057-836D-4287-9336-CF88189F1CF9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A1E83B94-BFA7-4E38-9CA8-B8A2B5C5A318}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2106B0A4-0E61-4704-981A-1520C6A05169}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1687866E-9DA2-4350-BCA5-290AB55B591C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA913F30-89E3-4752-B87D-FD7B095C821D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55C3BFB5-DDDC-4CC6-B857-A1A234416856}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{94DE5D4C-2BD9-4EA8-84CC-5F16955C39CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{646B7058-3874-4A56-A55C-47DE53FEC996}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F492E1EC-25C3-43A8-9480-54C950731942}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8480E35-4663-4FED-97FC-A6B521153E0E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56C1389E-C545-4DB9-ADF3-9C3FC5BF0093}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{766D448E-BB93-425A-946E-D73859478285}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AC0441CB-A793-4F60-BC62-E95CEA064573}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1F5C09F7-CCE0-46A9-B8FE-8CE3F7F06A3E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD078E4B-327E-4978-9730-DC7C7158C2C7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6802D438-BB13-4742-8006-BA03E7FF45EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A3294E0-17D5-410B-B36B-79B9872F2DB2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5E42AFC-2CFD-42BA-B572-D0C7936C59EA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C20AC4A-E9E8-44A3-8E90-5CBBB0B884DF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{063B7FE2-7D05-4285-ABB2-00E56802C31F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C733F45-26A6-4347-A4E4-1F7260296A19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B24F4290-17BA-4F19-B156-F0F0D36FE393}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7557,7 +7557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2FA9BA-E812-4CC5-9FC7-0FE2E910AB05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F19C7F-6632-458A-8369-4600A7968C60}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8782,18 +8782,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC9F0967-A8C9-47ED-B841-DEE8273DBA61}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BB971CD-594C-4950-8425-7E7944D96557}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{750DF5BE-F38A-4C32-B934-875FA9169EC7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{813F9F54-A2A7-452B-BB38-173D7654CA31}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{460BF043-1F1C-4B2C-B269-3C4BE0EA7A9B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F9915868-F672-4C1D-9DDD-AF5E0373E771}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B5BE280-4A33-47BF-B1D3-ACE440CC2760}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23BADC06-60B2-4825-8BA7-62634EA4C6D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41C77541-76C3-4813-BA39-1F3335D34413}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5CE54510-C022-4BDA-92BC-893FE7B1E447}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A1B82FD-BACB-4868-958A-66F74EE86A24}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E9FFB23-9501-4684-8FAE-4115E8B42464}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20A7DA68-499F-4434-9C12-C7E145424A48}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{546103B8-B562-4951-8391-A375696CA94A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{90701B77-82A6-4C99-B16D-353C144451D8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A7E88616-4174-4AF5-9389-95ACBB38DF49}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDF09CC5-0D1B-41F2-8993-E38B08DDC386}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4F1FBB6E-933D-46BA-A863-4F20A6FDDCE4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E613A0DA-9362-495E-95F8-C343331A2177}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{724EE854-05BA-4B79-A06D-F313FCEDD4BC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53ED76B6-3C3A-44EE-94E2-3A4C310C66C0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{32FA5B9C-A10F-44E3-BF86-BFD7BD42361F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EE94DBB-9BC5-47FA-896F-CF74BE306F83}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{60B28AD9-D4B7-4E92-AE8F-2E239F81688F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8806,7 +8806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A357470-7053-40CF-BC19-95352DDFBBF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37C4DEE-4B21-4ED8-8A02-609A573F07D3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10027,18 +10027,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54233BD9-4B91-416F-ADB2-D44392217ED6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04E096A7-EDF7-44EE-88FC-70C848CA6BCC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{24F93F4D-DB08-4A5F-9913-0149FD620204}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A9EEDC22-E79A-4658-A928-80EC067A506B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5DB38A3A-591D-4798-8300-09011D86B779}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{00CB4AA5-221A-424E-A895-6DECECF8CF52}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AFF7692E-D0E5-4CEA-BFCD-563182529086}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4D7E52C-BA3C-4275-87DD-93F2650D315A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB9ED1BC-68FE-4CDE-B745-992702ACC474}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{25328DAE-5186-405B-B3DA-DF902B8E91CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA2F6DCC-DA13-4E1C-8DB0-3C884731067D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3E1F7B4-70E4-4007-AB74-360B3ACFECC8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63276AC3-1F7D-4C0F-B082-D09EE4A77F3E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9419C41B-CF61-4528-AD07-50CF47CCD98E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{370E32A9-44B0-44D7-94A1-D6CBF1E54EB2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{66710654-33A7-4F29-B73D-BE3A5B8BB308}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F699A5C6-A3A4-4A5A-A3A8-A3D035DE78FA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{555450C2-DB76-44EC-9B58-C5B7C24EEB8A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA36C418-D2FB-4DA0-BC44-408C23AD1A71}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35F42693-D18F-48C8-9D0A-E6C31106C281}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1B02CAA-721A-44CB-853B-C43AC7DABE82}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7917233C-93F1-4549-9610-4D9E8EBDC1A0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A524F922-4DBD-4449-831A-FAF13CDA6213}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{920E0B0D-0BA9-41F6-BFA9-EBE5C7A313EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10051,7 +10051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E311C67-B81D-48A2-AC05-AC421ACA4306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBE629-AD14-4115-A43C-8CF8E5EF103B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11276,18 +11276,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2790CE02-3524-47B1-8A6B-C7975F6AE478}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59243E53-BD5C-46DC-B64E-B4FCA62E03FF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{06A009E6-3F53-4D74-A8FE-59ED35423A28}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C20719DB-8378-44C6-9BF0-07B7331F39E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4671A820-8D2E-4214-B225-D4B6DCBA1188}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C3ACBC62-4BA7-47CF-85E3-6E3F709CD96C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F73784DE-1101-469B-83BC-D665DCA81E5E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E09ACE2B-23AD-414F-8540-037A19F7D8D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C9B30B7-EDBD-447B-9A9D-836253D9D7B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A2D047D-2CAD-4471-992D-5093F4BDBD6C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1209EED3-108C-4708-AE6C-AB2BC117A8D8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0BDFEB2F-9011-4E98-8A86-3DC82F316A2D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E54FAC95-FE7F-4B3F-8BBB-6AE64B1F173D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2595253-D3C2-4CEC-AA49-5A32EC3B6D23}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C91E08DD-BDF4-418C-8265-3FFC98761A6E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{37476CD8-9C5D-449D-BDA7-A6A608B8BF8F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49A50A0F-2778-4F43-ADBF-AA1A9F730F1A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C9A5F70B-7647-433C-9FDB-9D49F42CE498}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C05B11B-26C3-4773-89A6-16F7825E801A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{38589F0A-B3EE-4985-A391-E0864C4FCE95}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F34544B-20AC-40A7-A85B-F95BFE5B297E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{22072F7E-27C8-447C-8245-6A598138B753}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D28A29D-FD72-467C-BC17-51148FD97F22}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC015CD2-D4C5-428A-B660-9EDCBBEF93A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11300,7 +11300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA9ABCC-F24B-4324-B5C6-882F5B79A19C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C38700A-873A-4965-B79A-309FD3CC032B}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12522,18 +12522,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6EBEE449-AD83-4A74-AAD2-56548D944F88}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7664805A-9E4C-4D68-8B8D-275908D8D6DC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{36BB2C27-D56D-45BE-B49E-0F920ADD375D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{33E94840-521A-4853-857E-7C24E23706D4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1AE430FA-EE71-4C41-9761-4ABA5E6145F5}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7D4E04ED-A803-4F51-8F00-2F5F3D25A0C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3757D7DA-C404-461C-AE91-21FB695A01B9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F80A2208-39FF-4A01-AE84-41F4092CCFCF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2211CFFC-5743-45E1-AA72-9C5117CB81C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{86ECA548-2ABC-4EE0-8E67-759EC5AC2FAE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2EF9CABE-A468-4549-803D-AD4F3A86D9F2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF65A47A-8536-4048-85E1-3E774B524F05}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{956F6B01-36C8-4873-9D0D-9A4DB3957B33}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EE413496-2504-48AA-97F9-86A9EB96735A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{45BA62F6-658C-4743-A4F8-698002ED2570}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FB38A43C-E130-48D2-ACF2-D3BC81C067EE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{076B21C5-85C9-4FB5-BE77-11C25262AD6E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A548E9BD-6EBC-4850-BB8A-E3FEFDFF5060}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D06BCA0-FDEC-4066-9C0D-C864471BB473}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{808CE7C0-48EB-439C-9327-3A32BC81F621}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC2429A2-0552-4A62-B08A-C8BC58D36D3D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{007270AD-7377-4311-B28D-BE53248EEEAF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18753A93-673F-4D26-AF83-F7B42C363AD3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{804F0271-4D3C-4932-8797-2B4F854B3CFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12546,7 +12546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAEA7937-DA81-43DD-A75B-A40ED0CB8E6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0813D655-471B-4B61-A1EB-FFF820769F84}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -13764,18 +13764,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1EA87B76-2025-435E-8CFB-B04CABE6CB7A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D99263F7-5D6E-450F-9136-15177AC2433B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F21107E1-EE6D-4F7D-B902-23546590E69F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{19795792-C5ED-46D5-B81A-084D717757AA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1AAF37C5-1761-45EF-BDC5-0B30050B63C9}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{19569A8F-DA98-4C21-ACC9-55148B6A7B20}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D6DF73A-2A2C-49B5-9058-369306B7B815}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3672094-9BAD-470C-A13A-7BF21C216523}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A90EAD47-44F8-46B3-A79E-744F52ED5634}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{308DB60A-E750-4204-8BD0-682C64A50104}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1D9CCB0-9FA3-4008-8047-D65C0EB6A693}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F715003-B44B-428A-9945-060284CC3CF1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41D2A7AB-7FE8-40D4-A8E2-AB366B2CBEA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44908C92-EDDB-4E9F-B70C-0BCAE90373E3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AE2391B9-5C59-4FDF-AD49-AEB04F5CADD9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D4D68511-3572-4A87-9836-81A70DAB4BE8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A98AA4EE-E74F-40B5-8189-EB83AA78832F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A3B24B6E-2DAA-4F90-A4C9-4E3BB441A587}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E46A77AF-1060-4EC4-80BC-07AE8D52725D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CBB7C4F1-C6ED-423C-A08A-41033CED4C40}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9BCA436A-D044-4ACA-9A94-41932423A09F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{45BB5A4D-9480-41C6-9687-874CB74F8D8A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F82402C8-339E-4A83-B7F7-3A66C6A85C12}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70F7B702-33AF-4ECB-BF6A-A41F56CF4F26}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13788,7 +13788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D25E55-FFD9-4D40-8F08-1CDDBD8A0DB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07040208-1DE9-4B94-84F1-BCA9A02A0E6C}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15006,18 +15006,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{362830A5-FD26-4BDA-B7D8-2E0BAA3913F5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B12E5EA7-A6EB-4F11-B14C-1EE107A54ADA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8EECC78A-2280-4667-BE8A-456485DD57AE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BFA7538D-F1CC-4D17-93C4-D42BE74C45A0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CF73923-53E6-49F3-B191-4A33C7E37585}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5ABC5DF2-AEE8-4A44-8ADE-401F0B8DBC35}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{49F76091-59A0-4763-9F73-2C648FD73C32}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7ED3C15-99D0-4D81-BCD4-3ABD4EE4F766}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2D43C93-3C71-4C35-9179-A97CBBD09001}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FB41C2E1-40A4-4F76-8BE3-1ACEF92799D9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A19B1D36-6779-4D4C-B2DF-757393119DFF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB5B2D9D-1FD7-441F-81E8-29D700214A31}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F5292CB5-385C-41E5-9AF6-2533B202031A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E472BEE0-FE6F-4387-9F1D-10688880666A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2989651C-5850-4CFB-B96B-B5714264EFEA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{61A1B4D6-44E4-46E4-A695-607FD1B6230D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8DDACA5C-86FC-4251-B3BD-0C99DE9A4DB7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5FEF7A0F-063B-4F67-921F-3E82EF72785A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5EF4CCB-59D1-4669-9204-78AAC5BE1AA5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A0025AF-3C77-43E9-B7B5-84D3867951C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1DFA94D7-2F36-4A4D-A8A9-9B70FD967515}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3092F7D2-4A82-41DF-B0F8-BF63CACE9F4A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CF1DFB8-C563-4F54-B9F1-C52C16A71604}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8B7E9231-167F-4641-9480-89799FAB87C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15030,7 +15030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BBA7A4B-0A09-40BE-BD2B-EE88E00E6CE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0647287C-D17B-4E04-814E-93A0FE39B9EB}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16248,18 +16248,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B6998FA-236F-4B1F-BEC5-DD9503C1F198}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A72BFFB8-A064-4570-AA76-C9832E9029BE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7C9A0AA0-D7F6-4C8E-BE89-44E3126F1290}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3A314592-15AD-4B1F-89F5-0AB636C3A3ED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93E451F1-FF4E-405C-A656-5C2664235424}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7D2821ED-AB02-4132-B505-FEF77DA8D6C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{250FEB48-C088-49A9-93C4-B49AF0AADB7A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7C5F877D-1D7C-4E66-9171-6C0E77791642}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{10663FBF-2B50-444F-8EDD-64F5CC154582}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EF179E49-C1CC-49F6-9503-144A77D0D010}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4B7E5F3-7C0C-4421-8388-916ED0CEB294}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3F76D4AC-474D-438D-87D8-48C04227C251}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{72E8E219-7E36-4366-8FF5-178E77C78A17}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE7CB551-7352-4438-8757-48D67414FE9C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{64AE786A-AE56-4A62-A023-FADD0E2211C6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{13E7FA10-D4E5-43B7-903D-9F8FE072D20E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE647598-4D03-4595-8EE5-4809619300FA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DF1B0FA7-A1E4-4513-8F3A-6209542CC7DC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B920FD8-AB7C-4527-BC26-D19091C55253}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A265D63-8B0F-4D31-9207-94301994C24F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF51E167-3229-4B71-97C7-8BAC35EF42A3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{373FC64D-5A03-4E98-946F-6306C60BF8BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{055F48E2-AB79-4B02-9252-48F3B125C144}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3AE111D0-A261-4700-BFBD-EAA295AEE6C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
